--- a/docs/icare/obf-Resource.xlsx
+++ b/docs/icare/obf-Resource.xlsx
@@ -223,7 +223,7 @@
     <t>sourcesystem</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-SourceSystem-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-SourceSystem-extension}
 </t>
   </si>
   <si>

--- a/docs/icare/obf-Resource.xlsx
+++ b/docs/icare/obf-Resource.xlsx
@@ -223,7 +223,7 @@
     <t>sourcesystem</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-SourceSystem-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-SourceSystem-extension}
 </t>
   </si>
   <si>
